--- a/results/template_files/supplementary_docs_template.xlsx
+++ b/results/template_files/supplementary_docs_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rony\Desktop\local\django projects\sec_res_administration\SecRDB\results\template_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0292FE82-5157-4010-A1FF-9E1F82BB3382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628EA021-438F-44F3-ADAA-9EFF5DFE58A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{110BFB22-AAC5-4344-9C37-C940E204994E}"/>
   </bookViews>
@@ -34,16 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>total_answersheets</t>
-  </si>
-  <si>
-    <t>part_A_answersheets</t>
-  </si>
-  <si>
-    <t>part_B_answersheets</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>exam_time</t>
   </si>
@@ -51,9 +42,6 @@
     <t>exam_date</t>
   </si>
   <si>
-    <t>chief_visitor_name</t>
-  </si>
-  <si>
     <t>examiner_name</t>
   </si>
   <si>
@@ -79,6 +67,12 @@
   </si>
   <si>
     <t>external_examiner_designation</t>
+  </si>
+  <si>
+    <t>chief_invigilator_name</t>
+  </si>
+  <si>
+    <t>records_per_column</t>
   </si>
 </sst>
 </file>
@@ -88,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-5000000]mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +105,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +159,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,15 +195,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -192,12 +226,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -522,96 +587,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F9616D-02A2-429E-8A18-908DC5A17AAE}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="6" max="7" width="23.109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.21875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="29.77734375" style="13" customWidth="1"/>
+    <col min="9" max="10" width="23.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="22.21875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="7"/>
+      <c r="B5" s="16">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/template_files/supplementary_docs_template.xlsx
+++ b/results/template_files/supplementary_docs_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rony\Desktop\local\django projects\sec_res_administration\SecRDB\results\template_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628EA021-438F-44F3-ADAA-9EFF5DFE58A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AE2E5B-4D39-4623-B1C7-F2CE16404D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{110BFB22-AAC5-4344-9C37-C940E204994E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>exam_time</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>records_per_column</t>
+  </si>
+  <si>
+    <t>chairman_name</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,14 +262,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,16 +587,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F9616D-02A2-429E-8A18-908DC5A17AAE}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B6" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="24.21875" style="11" customWidth="1"/>
     <col min="5" max="5" width="23.109375" style="11" customWidth="1"/>
@@ -607,10 +607,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="7"/>
@@ -640,14 +640,14 @@
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="8"/>
       <c r="D3" s="12"/>
     </row>
@@ -655,34 +655,42 @@
       <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="16">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="17">
+        <v>30</v>
+      </c>
       <c r="C6" s="6"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
